--- a/KPIs'.xlsx
+++ b/KPIs'.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1680" windowWidth="28020" windowHeight="16520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22160" windowHeight="15760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sammanställning" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -383,7 +383,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -396,7 +396,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -418,15 +417,6 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,9 +460,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,6 +582,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -859,19 +858,7 @@
                   <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>231.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,11 +874,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1564904912"/>
-        <c:axId val="-1563120464"/>
+        <c:axId val="-1517071472"/>
+        <c:axId val="-1663234976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1564904912"/>
+        <c:axId val="-1517071472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,7 +921,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1563120464"/>
+        <c:crossAx val="-1663234976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -942,7 +929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1563120464"/>
+        <c:axId val="-1663234976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300.0"/>
@@ -965,6 +952,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -995,7 +983,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1564904912"/>
+        <c:crossAx val="-1517071472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1216,7 +1204,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sammanställning!$B$3</c:f>
+              <c:f>Sammanställning!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1262,24 +1250,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sammanställning!$C$3:$G$3</c:f>
+              <c:f>Sammanställning!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>1.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,7 +1278,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sammanställning!$B$4</c:f>
+              <c:f>Sammanställning!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1336,7 +1324,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sammanställning!$C$4:$G$4</c:f>
+              <c:f>Sammanställning!$C$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1344,16 +1332,16 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,7 +1352,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sammanställning!$B$5</c:f>
+              <c:f>Sammanställning!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1410,24 +1398,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sammanställning!$C$5:$G$5</c:f>
+              <c:f>Sammanställning!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1438,7 +1426,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sammanställning!$B$6</c:f>
+              <c:f>Sammanställning!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1484,12 +1472,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sammanställning!$C$6:$G$6</c:f>
+              <c:f>Sammanställning!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -1515,11 +1503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1562781952"/>
-        <c:axId val="-1562652064"/>
+        <c:axId val="-1625450448"/>
+        <c:axId val="-1625448160"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-1562781952"/>
+        <c:axId val="-1625450448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1562,7 +1550,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1562652064"/>
+        <c:crossAx val="-1625448160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1570,7 +1558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1562652064"/>
+        <c:axId val="-1625448160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,10 +1585,11 @@
             </a:effectLst>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1562781952"/>
+        <c:crossAx val="-1625450448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1636,6 +1625,477 @@
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Velocity!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tidigare velocity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Velocity!$B$6:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Velocity!$C$6:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Velocity!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>godkända</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Velocity!$B$6:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Velocity!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Velocity!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>utfall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Velocity!$B$6:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Velocity!$E$6:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1558225600"/>
+        <c:axId val="-1558223280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1558225600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1558223280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1558223280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1558225600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -1761,6 +2221,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2750,6 +3250,522 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2819,15 +3835,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
+      <xdr:colOff>104447</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>226848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
+      <xdr:colOff>548947</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>61748</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2841,6 +3857,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3115,7 +4166,7 @@
   <dimension ref="A2:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3126,22 +4177,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="61" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2"/>
@@ -3160,86 +4211,84 @@
     </row>
     <row r="3" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="76">
-        <v>0.8</v>
-      </c>
-      <c r="D3" s="76">
-        <v>1</v>
-      </c>
-      <c r="E3" s="76">
-        <v>0.2</v>
-      </c>
-      <c r="F3" s="76">
-        <v>0.3</v>
-      </c>
-      <c r="G3" s="76">
-        <v>0.7</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="71">
+        <v>0</v>
+      </c>
+      <c r="E3" s="71">
+        <v>0</v>
+      </c>
+      <c r="F3" s="71">
+        <v>0</v>
+      </c>
+      <c r="G3" s="71">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="76">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="76">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="76">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="76">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="76">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="71">
+        <f>'Psykosocial miljö'!C11</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D4" s="72">
+        <v>0</v>
+      </c>
+      <c r="E4" s="72">
+        <v>0</v>
+      </c>
+      <c r="F4" s="72">
+        <v>0</v>
+      </c>
+      <c r="G4" s="72">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="76">
-        <v>0.8</v>
-      </c>
-      <c r="D5" s="77">
-        <v>0.9</v>
-      </c>
-      <c r="E5" s="77">
-        <v>0.85</v>
-      </c>
-      <c r="F5" s="77">
-        <v>0.7</v>
-      </c>
-      <c r="G5" s="77">
-        <v>0.95</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="72">
+        <f>'Godkända inkrement'!E5</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="72">
+        <v>0</v>
+      </c>
+      <c r="E5" s="72">
+        <v>0</v>
+      </c>
+      <c r="F5" s="72">
+        <v>0</v>
+      </c>
+      <c r="G5" s="72">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="77">
-        <f>'Godkända inkrement'!E5</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="77">
-        <f>'Godkända inkrement'!E6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="77">
-        <f>'Godkända inkrement'!E7</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="77">
-        <f>'Godkända inkrement'!E8</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="77">
-        <f>'Godkända inkrement'!E9</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="71">
+        <f>Velocity!E6</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D6" s="71">
+        <v>0</v>
+      </c>
+      <c r="E6" s="71">
+        <v>0</v>
+      </c>
+      <c r="F6" s="71">
+        <v>0</v>
+      </c>
+      <c r="G6" s="71">
         <v>0</v>
       </c>
     </row>
@@ -3270,39 +4319,39 @@
       <c r="G9" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="7"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="7"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
+      <c r="A26" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="63"/>
-      <c r="F28" s="63"/>
+      <c r="D28" s="58"/>
+      <c r="F28" s="58"/>
     </row>
     <row r="29" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="63"/>
+      <c r="D29" s="58"/>
     </row>
     <row r="30" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="63"/>
+      <c r="D30" s="58"/>
     </row>
     <row r="31" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="63"/>
+      <c r="D31" s="58"/>
     </row>
     <row r="32" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="63"/>
+      <c r="D32" s="58"/>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="63"/>
+      <c r="D33" s="58"/>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="D34" s="63"/>
+      <c r="A34" s="22"/>
+      <c r="D34" s="58"/>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="26"/>
+      <c r="A42" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3316,20 +4365,20 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="62" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="62"/>
-    <col min="3" max="3" width="14" style="62" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="62" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="62"/>
+    <col min="1" max="1" width="5.83203125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="57"/>
+    <col min="3" max="3" width="14" style="57" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="57" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="57"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="74" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3337,90 +4386,90 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="22">
-        <v>0</v>
-      </c>
-      <c r="D5" s="78">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="C5" s="18">
+        <v>69</v>
+      </c>
+      <c r="D5" s="73">
+        <v>69</v>
+      </c>
+      <c r="E5" s="18">
         <f>IF(C5&gt;0,D5/C5,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="22">
-        <v>0</v>
-      </c>
-      <c r="D6" s="78">
-        <v>0</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="73">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
         <f t="shared" ref="E6:E9" si="0">IF(C6&gt;0,D6/C6,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="22">
-        <v>0</v>
-      </c>
-      <c r="D7" s="78">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="73">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="22">
-        <v>0</v>
-      </c>
-      <c r="D8" s="78">
-        <v>0</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="73">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="22">
-        <v>0</v>
-      </c>
-      <c r="D9" s="78">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="73">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3432,233 +4481,355 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J15"/>
+  <dimension ref="A2:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="1" style="1" customWidth="1"/>
-    <col min="3" max="13" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="14" width="8.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="18" t="s">
+    <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="82"/>
+    </row>
+    <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="I5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23">
-        <v>0</v>
-      </c>
-      <c r="D6" s="24">
-        <v>0</v>
-      </c>
-      <c r="E6" s="24">
-        <v>0</v>
-      </c>
-      <c r="F6" s="24">
-        <v>0</v>
-      </c>
-      <c r="G6" s="24">
-        <v>0</v>
-      </c>
-      <c r="H6" s="24">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1</v>
+      </c>
+      <c r="H6" s="20">
+        <v>1</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0</v>
+      </c>
+      <c r="N6" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23">
-        <v>0</v>
-      </c>
-      <c r="D8" s="24">
-        <v>0</v>
-      </c>
-      <c r="E8" s="24">
-        <v>0</v>
-      </c>
-      <c r="F8" s="24">
-        <v>0</v>
-      </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="24">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0</v>
+      </c>
+      <c r="N8" s="20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23">
-        <v>0</v>
-      </c>
-      <c r="D10" s="24">
-        <v>0</v>
-      </c>
-      <c r="E10" s="24">
-        <v>0</v>
-      </c>
-      <c r="F10" s="24">
-        <v>0</v>
-      </c>
-      <c r="G10" s="24">
-        <v>0</v>
-      </c>
-      <c r="H10" s="24">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20">
+        <v>0</v>
+      </c>
+      <c r="M10" s="20">
+        <v>0</v>
+      </c>
+      <c r="N10" s="20">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <f>AVERAGE(C6:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="12">
+        <f>AVERAGE(I6:N10)</f>
+        <v>0.13</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="14">
+      <c r="B12" s="9"/>
+      <c r="C12" s="13">
         <f>MIN(C6:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="69"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="I12" s="13">
+        <f>MIN(I6:N10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="64"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3670,7 +4841,7 @@
   <dimension ref="B4:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3689,84 +4860,77 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="72"/>
-      <c r="C5" s="74" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="68" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="75">
+      <c r="C6" s="70">
         <v>300</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="66">
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="75">
+      <c r="C7" s="70">
         <f>C6-60</f>
         <v>240</v>
       </c>
-      <c r="D7" s="71">
-        <v>220</v>
+      <c r="D7" s="66">
+        <f>D6-'Godkända inkrement'!D5</f>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="75">
+      <c r="C8" s="70">
         <f t="shared" ref="C8:C11" si="0">C7-60</f>
         <v>180</v>
       </c>
-      <c r="D8" s="4">
-        <v>150</v>
-      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="75">
+      <c r="C9" s="70">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="D9" s="4">
-        <v>140</v>
-      </c>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="75">
+      <c r="C10" s="70">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D10" s="4">
-        <v>30</v>
-      </c>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
+      <c r="D11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3777,8 +4941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3791,7 +4955,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -3799,220 +4963,220 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F3" s="34"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="80" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="27"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="36">
-        <v>0</v>
-      </c>
-      <c r="E6" s="37">
-        <v>0</v>
-      </c>
-      <c r="F6" s="38">
-        <v>0</v>
-      </c>
-      <c r="G6" s="37">
-        <v>0</v>
-      </c>
-      <c r="H6" s="39">
+      <c r="D6" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="29"/>
-      <c r="C7" s="30" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="40">
-        <v>0</v>
-      </c>
-      <c r="E7" s="24">
-        <v>0</v>
-      </c>
-      <c r="F7" s="41">
-        <v>0</v>
-      </c>
-      <c r="G7" s="24">
-        <v>0</v>
-      </c>
-      <c r="H7" s="42">
+      <c r="D7" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="29"/>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="40">
-        <v>0</v>
-      </c>
-      <c r="E8" s="24">
-        <v>0</v>
-      </c>
-      <c r="F8" s="41">
-        <v>0</v>
-      </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="42">
+      <c r="D8" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="40">
-        <v>0</v>
-      </c>
-      <c r="E9" s="24">
-        <v>0</v>
-      </c>
-      <c r="F9" s="41">
-        <v>0</v>
-      </c>
-      <c r="G9" s="24">
-        <v>0</v>
-      </c>
-      <c r="H9" s="42">
+      <c r="D9" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="29"/>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="40">
-        <v>0</v>
-      </c>
-      <c r="E10" s="24">
-        <v>0</v>
-      </c>
-      <c r="F10" s="41">
-        <v>0</v>
-      </c>
-      <c r="G10" s="24">
-        <v>0</v>
-      </c>
-      <c r="H10" s="42">
+      <c r="D10" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="29"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="43">
-        <v>0</v>
-      </c>
-      <c r="E11" s="44">
-        <v>0</v>
-      </c>
-      <c r="F11" s="45">
-        <v>0</v>
-      </c>
-      <c r="G11" s="44">
-        <v>0</v>
-      </c>
-      <c r="H11" s="46">
+      <c r="D11" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="39">
+        <v>0</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0</v>
+      </c>
+      <c r="G11" s="39">
+        <v>0</v>
+      </c>
+      <c r="H11" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="27"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="50"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="29"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="46">
         <f>AVERAGE(D6:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="52">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="E13" s="47">
         <f t="shared" ref="E13:H13" si="0">AVERAGE(E6:E11)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="54">
+      <c r="H13" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="29"/>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="46">
         <f>MAX(D6:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="47">
         <f t="shared" ref="E14:H14" si="1">MAX(E6:E11)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4030,7 +5194,7 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4044,7 +5208,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4052,114 +5216,116 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="67"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="54" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="52">
         <v>60</v>
       </c>
-      <c r="D6" s="55">
-        <v>0</v>
-      </c>
-      <c r="E6" s="83">
+      <c r="D6" s="50">
+        <v>69</v>
+      </c>
+      <c r="E6" s="78">
         <f>IF(C6&gt;0,D6/C6,0)</f>
-        <v>0</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="53">
         <f>AVERAGE(D6)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="56">
-        <v>0</v>
-      </c>
-      <c r="E7" s="84">
+        <v>69</v>
+      </c>
+      <c r="D7" s="51">
+        <v>0</v>
+      </c>
+      <c r="E7" s="79">
         <f t="shared" ref="E7:E10" si="0">IF(C7&gt;0,D7/C7,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="53">
         <f>AVERAGE(D6:D7)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="56">
-        <v>0</v>
-      </c>
-      <c r="E8" s="84">
+        <v>34.5</v>
+      </c>
+      <c r="D8" s="51">
+        <v>0</v>
+      </c>
+      <c r="E8" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="53">
         <f>AVERAGE(D6:D8)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="56">
-        <v>0</v>
-      </c>
-      <c r="E9" s="84">
+        <v>23</v>
+      </c>
+      <c r="D9" s="51">
+        <v>0</v>
+      </c>
+      <c r="E9" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="53">
         <f>AVERAGE(D6:D9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="56">
-        <v>0</v>
-      </c>
-      <c r="E10" s="84">
+        <v>17.25</v>
+      </c>
+      <c r="D10" s="51">
+        <v>0</v>
+      </c>
+      <c r="E10" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
+      <c r="B13" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>